--- a/Logiciel_PEP/mysite/polls/static/polls/template_bv_sylog.xlsx
+++ b/Logiciel_PEP/mysite/polls/static/polls/template_bv_sylog.xlsx
@@ -1428,7 +1428,7 @@
       <c r="H3" s="10" t="n"/>
       <c r="I3" s="74" t="inlineStr">
         <is>
-          <t>30 juillet 2024</t>
+          <t>09 août 2024</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="G4" s="125" t="inlineStr">
         <is>
-          <t>Antony Feord</t>
+          <t>Meryem Azguenfou</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="G8" s="105" t="inlineStr">
         <is>
-          <t>77420 France</t>
+          <t>67000 France</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="C13" s="118" t="inlineStr">
         <is>
-          <t>24e01</t>
+          <t>24e02</t>
         </is>
       </c>
       <c r="G13" s="119" t="inlineStr">
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="I13" s="76" t="n">
-        <v>560</v>
+        <v>770</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="I14" s="77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">

--- a/Logiciel_PEP/mysite/polls/static/polls/template_bv_sylog.xlsx
+++ b/Logiciel_PEP/mysite/polls/static/polls/template_bv_sylog.xlsx
@@ -1428,7 +1428,7 @@
       <c r="H3" s="10" t="n"/>
       <c r="I3" s="74" t="inlineStr">
         <is>
-          <t>09 août 2024</t>
+          <t>14 août 2024</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="G4" s="125" t="inlineStr">
         <is>
-          <t>Meryem Azguenfou</t>
+          <t>Antony Feord</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="G6" s="103" t="inlineStr">
         <is>
-          <t>4 rue des M</t>
+          <t>4 rue des Maraichers</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="G8" s="105" t="inlineStr">
         <is>
-          <t>67000 France</t>
+          <t>77420 France</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="C13" s="118" t="inlineStr">
         <is>
-          <t>24e02</t>
+          <t>24e01</t>
         </is>
       </c>
       <c r="G13" s="119" t="inlineStr">
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="I13" s="76" t="n">
-        <v>770</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="I14" s="77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">

--- a/Logiciel_PEP/mysite/polls/static/polls/template_bv_sylog.xlsx
+++ b/Logiciel_PEP/mysite/polls/static/polls/template_bv_sylog.xlsx
@@ -1428,7 +1428,7 @@
       <c r="H3" s="10" t="n"/>
       <c r="I3" s="74" t="inlineStr">
         <is>
-          <t>14 août 2024</t>
+          <t>18 août 2024</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="G4" s="125" t="inlineStr">
         <is>
-          <t>Antony Feord</t>
+          <t>Edgar Duc</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="G8" s="105" t="inlineStr">
         <is>
-          <t>77420 France</t>
+          <t>67000 France</t>
         </is>
       </c>
     </row>

--- a/Logiciel_PEP/mysite/polls/static/polls/template_bv_sylog.xlsx
+++ b/Logiciel_PEP/mysite/polls/static/polls/template_bv_sylog.xlsx
@@ -1428,7 +1428,7 @@
       <c r="H3" s="10" t="n"/>
       <c r="I3" s="74" t="inlineStr">
         <is>
-          <t>18 août 2024</t>
+          <t>10 septembre 2024</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="G4" s="125" t="inlineStr">
         <is>
-          <t>Edgar Duc</t>
+          <t>Inès Petit</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="G6" s="103" t="inlineStr">
         <is>
-          <t>4 rue des Maraichers</t>
+          <t>14 rue Jules Ferry</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="G8" s="105" t="inlineStr">
         <is>
-          <t>67000 France</t>
+          <t>54520 France</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="C13" s="118" t="inlineStr">
         <is>
-          <t>24e01</t>
+          <t>24e02</t>
         </is>
       </c>
       <c r="G13" s="119" t="inlineStr">
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="I13" s="76" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="I14" s="77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">

--- a/Logiciel_PEP/mysite/polls/static/polls/template_bv_sylog.xlsx
+++ b/Logiciel_PEP/mysite/polls/static/polls/template_bv_sylog.xlsx
@@ -1428,7 +1428,7 @@
       <c r="H3" s="10" t="n"/>
       <c r="I3" s="74" t="inlineStr">
         <is>
-          <t>10 septembre 2024</t>
+          <t>11 septembre 2024</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="G4" s="125" t="inlineStr">
         <is>
-          <t>Inès Petit</t>
+          <t>Martin Serre</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="G6" s="103" t="inlineStr">
         <is>
-          <t>14 rue Jules Ferry</t>
+          <t>458 Route de l’Etoilerie</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="G8" s="105" t="inlineStr">
         <is>
-          <t>54520 France</t>
+          <t>63870 France</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="C13" s="118" t="inlineStr">
         <is>
-          <t>24e02</t>
+          <t>24e03</t>
         </is>
       </c>
       <c r="G13" s="119" t="inlineStr">
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="I13" s="76" t="n">
-        <v>360</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="I14" s="77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
